--- a/data/Central_Bank/money_supply_data.xlsx
+++ b/data/Central_Bank/money_supply_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/halilergul/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E105D136-AAC4-4646-BA06-17A2190BC7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF427C83-E468-6940-9731-DF3AB375BB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33040" yWindow="380" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVDS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Tarih</t>
   </si>
@@ -536,69 +536,6 @@
   </si>
   <si>
     <t>2019-01</t>
-  </si>
-  <si>
-    <t>Seri Açıklamaları</t>
-  </si>
-  <si>
-    <t>TP.PBD.H01</t>
-  </si>
-  <si>
-    <t>1.M1-Düzey</t>
-  </si>
-  <si>
-    <t>Gözlem Değeri: Bitiş</t>
-  </si>
-  <si>
-    <t>TP.PBD.H09</t>
-  </si>
-  <si>
-    <t>2.M2-Düzey</t>
-  </si>
-  <si>
-    <t>Notlar</t>
-  </si>
-  <si>
-    <t>Uygulama Değişiklik Linki</t>
-  </si>
-  <si>
-    <t>http://www.tcmb.gov.tr/wps/wcm/connect/TR/TCMB+TR/Main+Menu/Istatistikler/Parasal+ve+Finansal+Istatistikler/Aylik+Para+ve+Banka+Istatistikleri/Uygulama+Degisiklikleri/</t>
-  </si>
-  <si>
-    <t>Veri Kaynağı</t>
-  </si>
-  <si>
-    <t>bankalar</t>
-  </si>
-  <si>
-    <t>Veri Yayınlama Takvim Linki</t>
-  </si>
-  <si>
-    <t>http://www3.tcmb.gov.tr/veriyaytakvim/takvim.php</t>
-  </si>
-  <si>
-    <t>Metaveri Linki</t>
-  </si>
-  <si>
-    <t>http://www.tcmb.gov.tr/wps/wcm/connect/f3ad1a37-6d59-4a0b-b0d7-09b51cd7a73f/MetaveriAPB%C4%B02018.pdf?MOD=AJPERES&amp;CACHEID=ROOTWORKSPACE-f3ad1a37-6d59-4a0b-b0d7-09b51cd7a73f-ml2zpGJ</t>
-  </si>
-  <si>
-    <t>Revizyon Politika Linki</t>
-  </si>
-  <si>
-    <t>http://www.tcmb.gov.tr/wps/wcm/connect/ad56ebf3-a934-4aeb-860f-f657b01728d1/Revizyon+Politikas%C4%B1.pdf?MOD=AJPERES&amp;CACHEID=ROOTWORKSPACE-ad56ebf3-a934-4aeb-860f-f657b01728d1-m5hiF.-</t>
-  </si>
-  <si>
-    <t>Etiketler</t>
-  </si>
-  <si>
-    <t>Aylık,banka, bilanço, mevduat, kredi, menkul değer, özkaynaklar, kar, zarar</t>
-  </si>
-  <si>
-    <t>Dipnotlar</t>
-  </si>
-  <si>
-    <t>2005 Aralık ayından itibaren, bu tarihe kadar M2Y içerisinde izlenmekte olan 'Yurtiçi Yerleşiklerin YP Mevduatları' ile M3 içerisinde izlenmekte olan Diğer genel Yönetim Mevduatları vade gruplarına göre ayrıştırılarak M1 ile M2 içerisine dahil edilmiştir. Buna bağlı olarak M2Y, M2YR, M3Y ve M3YR kalemleri para arzı tanımından çıkarılmıştır.</t>
   </si>
 </sst>
 </file>
@@ -616,6 +553,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -947,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="H195" sqref="H195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2830,146 +2768,10 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>173</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>176</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>173</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B179" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B180" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B181" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B182" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B183" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B184" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>176</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B186" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B187" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B188" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B189" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B190" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="A173" s="1"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
